--- a/componentsData/excelData/write/dataFromOPC2.xlsx
+++ b/componentsData/excelData/write/dataFromOPC2.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Документи\Git - repositories\Apache-Camel\componentsData\excelData\write\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="Сторінка 1" r:id="rId3" sheetId="1"/>
+    <sheet name="Сторінка 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -23,11 +30,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,7 +45,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -57,16 +63,73 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2458032589676291E-2"/>
+          <c:y val="0.10749081364829396"/>
+          <c:w val="0.82801071741032373"/>
+          <c:h val="0.79427576552930879"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
-        <c:varyColors val="false"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -77,15 +140,16 @@
             <c:numRef>
               <c:f>'Сторінка 1'!$B$2:$B$4</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -94,56 +158,76 @@
             <c:numRef>
               <c:f>'Сторінка 1'!$A$2:$A$4</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-78.0</c:v>
+                  <c:v>-78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-70.0</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-64.0</c:v>
+                  <c:v>-64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-744960320"/>
+        <c:axId val="-744975008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1"/>
+        <c:axId val="-744960320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2"/>
+        <c:crossAx val="-744975008"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2"/>
+        <c:axId val="-744975008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1"/>
+        <c:crossAx val="-744960320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="true"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -154,8 +238,8 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -168,9 +252,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvPr id="2" name="Diagramm0"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -179,7 +263,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -188,15 +272,281 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -204,32 +554,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>-78.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-70.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-64.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-78</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-70</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-64</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-56.6666666666667</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-49.6666666666667</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-42.6666666666667</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-35.6666666666667</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-28.6666666666667</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-21.6666666666667</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-14.6666666666667</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-7.6666666666666696</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>